--- a/results/I3_N5_M3_T30_C100_DepCentral_s0_res_fix.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s0_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1845.706596348177</v>
+        <v>155.1550089908196</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0149998664855957</v>
+        <v>0.005000114440917969</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.0347856895565</v>
+        <v>25.15500899081956</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.455115194200066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.836925852814985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1381.340000000006</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>445.95</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -722,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -824,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -929,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.8863479000213</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>25.85875413377281</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.877501472320887</v>
+        <v>22.94108823397055</v>
       </c>
     </row>
     <row r="6">
@@ -961,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.936413238350337</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>25.06358676164966</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.45511519420007</v>
+        <v>23.56876729417876</v>
       </c>
     </row>
     <row r="10">
@@ -985,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.42095022666721</v>
+        <v>29.6956799865878</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,146 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1268,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>179.5750000000015</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1279,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>198.1950000000015</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>192.5550000000015</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1301,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>202.1200000000015</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>198.4800000000014</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1323,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.4</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
@@ -1334,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>122.0650000000008</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -1345,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>116.7150000000008</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
@@ -1356,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>125.2100000000008</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
@@ -1367,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>122.6300000000008</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
@@ -1378,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>133.8599999999991</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -1389,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>138.7699999999991</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
@@ -1400,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>146.7699999999991</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -1411,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>140.9699999999991</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>139.9799999999991</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -1433,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1444,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1455,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1466,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1477,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1488,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1510,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1521,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1532,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1543,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>133.8599999999991</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -1554,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>138.7699999999991</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
@@ -1565,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>146.7699999999991</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -1576,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>140.9699999999991</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
@@ -1587,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>139.9799999999991</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37">
@@ -1598,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>179.5750000000015</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38">
@@ -1609,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>198.1950000000015</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -1620,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>192.5550000000015</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40">
@@ -1631,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>202.1200000000015</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
@@ -1642,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>198.4800000000014</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42">
@@ -1653,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>108.515</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43">
@@ -1664,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>96.92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
@@ -1675,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>106.645</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45">
@@ -1686,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>103.745</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
@@ -1697,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>100.49</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>33.8599999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1755,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>38.76999999999913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1766,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>46.76999999999913</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1777,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>40.96999999999912</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1788,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>39.97999999999911</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1799,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>79.57500000000147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1810,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>98.19500000000147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1821,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>92.55500000000146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1832,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>102.1200000000015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1843,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>98.48000000000141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1854,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8.515000000000001</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -1865,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1876,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.644999999999996</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1887,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>3.745000000000005</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -1898,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4900000000000091</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2055,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2066,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2077,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2088,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2099,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2165,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2176,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2187,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2198,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2209,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2250,7 +2055,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2261,7 +2066,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2272,7 +2077,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2283,7 +2088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2294,7 +2099,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2305,10 +2110,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2316,10 +2121,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2327,133 +2132,12 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
